--- a/data/income_statement/2digits/total/28_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/28_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>28-Manufacture of machinery and equipment n.e.c.</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>28-Manufacture of machinery and equipment n.e.c.</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>18646162.64615</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>23559356.09870001</v>
+        <v>23559356.0987</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>33574185.69884</v>
+        <v>33575375.49312</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>36523260.31492001</v>
+        <v>36540157.62509</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>41970044.82247999</v>
+        <v>42163739.49260999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>50371836.19228</v>
+        <v>50473214.29483999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>52622794.23807999</v>
+        <v>57035859.74401001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>62672164.30812</v>
+        <v>63576506.21891</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>82398378.38286</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>108132139.89996</v>
+        <v>108225343.62791</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>116608502.29874</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>117270059.47374</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>157966830.606</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>12799063.62901</v>
@@ -995,40 +906,45 @@
         <v>17092689.9487</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>23937884.45165</v>
+        <v>23939074.24593</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>25972991.68584</v>
+        <v>25989489.50805</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>29697430.39153</v>
+        <v>29870001.11145</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>35193612.67995</v>
+        <v>35271833.24634001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>37420350.08947</v>
+        <v>40470483.72061</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>44580084.44111</v>
+        <v>45312298.19672</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>57667565.15738</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>72059921.76900999</v>
+        <v>72143396.32744999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>72542753.67895</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>73021707.02981</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>105656551.928</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>5683490.48571</v>
+        <v>5683490.485709999</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>6271842.751680001</v>
@@ -1037,34 +953,39 @@
         <v>9331407.78121</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>10230696.95433</v>
+        <v>10230931.30297</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>11908264.86977</v>
+        <v>11928622.81728</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>14744298.93098</v>
+        <v>14766937.54288</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>14685865.41612</v>
+        <v>16036590.91403</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>17460498.14231</v>
+        <v>17626421.12676</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>23888438.77039</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>34811467.9484</v>
+        <v>34820426.64573999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>42591910.31946</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>42768053.68052</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>50474413.13</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>163608.53143</v>
@@ -1076,73 +997,83 @@
         <v>304893.46598</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>319571.67475</v>
+        <v>319736.81407</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>364349.5611799999</v>
+        <v>365115.56388</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>433924.5813500001</v>
+        <v>434443.50562</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>516578.7324899999</v>
+        <v>528785.1093700001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>631581.7246999999</v>
+        <v>637786.8954299999</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>842374.4550900001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1260750.18255</v>
+        <v>1261520.65472</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1473838.30033</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1480298.76341</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1835865.548</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>478991.36927</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>612638.2154499998</v>
+        <v>612638.2154500001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>883218.99107</v>
+        <v>883218.9910700001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>906395.3377499999</v>
+        <v>906536.9359400001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>894703.0109599999</v>
+        <v>911177.0014299999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1396310.37087</v>
+        <v>1396657.34416</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1058116.53273</v>
+        <v>1367446.33017</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1915176.95396</v>
+        <v>1980717.79363</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>2334430.00376</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2854659.05958</v>
+        <v>2854957.38882</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2774566.81711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2787546.78577</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>5282964.21</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>189222.16814</v>
@@ -1154,34 +1085,39 @@
         <v>287569.07945</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>314990.18372</v>
+        <v>315108.77513</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>308722.42771</v>
+        <v>317452.70176</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>707051.3624800001</v>
+        <v>707350.0946299999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>486649.47559</v>
+        <v>504034.23967</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>838447.2755300001</v>
+        <v>845646.1411700001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>931269.4764299999</v>
+        <v>931269.47643</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1325181.96512</v>
+        <v>1325354.95917</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1282633.02957</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1292747.73757</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>2560198.966</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>219869.58566</v>
@@ -1193,37 +1129,42 @@
         <v>413943.2012</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>415835.97652</v>
+        <v>415858.9833000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>385566.34295</v>
+        <v>393307.03472</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>435292.64674</v>
+        <v>435334.3854200001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>482757.3808400001</v>
+        <v>534549.86709</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>668118.85965</v>
+        <v>726397.9769999998</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>892342.8366399999</v>
+        <v>892342.8366400001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>997202.9881500001</v>
+        <v>997327.3810000002</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1066362.50267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1069132.32689</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1930552.762</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>69899.61546999999</v>
+        <v>69899.61547</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>102132.16864</v>
@@ -1235,31 +1176,36 @@
         <v>175569.17751</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>200414.2403</v>
+        <v>200417.26495</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>253966.36165</v>
+        <v>253972.86411</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>88709.67629999999</v>
+        <v>328862.22341</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>408610.81878</v>
+        <v>408673.67546</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>510817.69069</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>532274.1063099999</v>
+        <v>532275.0486499999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>425571.28487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>425666.7213099999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>792212.482</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>18167171.27688</v>
@@ -1268,37 +1214,42 @@
         <v>22946717.88325</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>32690966.70777</v>
+        <v>32692156.50205</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>35616864.97717</v>
+        <v>35633620.68915</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>41075341.81152</v>
+        <v>41252562.49118</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>48975525.82140999</v>
+        <v>49076556.95068</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>51564677.70535</v>
+        <v>55668413.41384</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>60756987.35416</v>
+        <v>61595788.42527999</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>80063948.37910001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>105277480.84038</v>
+        <v>105370386.23909</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>113833935.48163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>114482512.68797</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>152683866.396</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>14493176.94008</v>
@@ -1307,37 +1258,42 @@
         <v>18584003.0863</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>26264388.92304999</v>
+        <v>26265062.15589</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>29031461.08824</v>
+        <v>29045561.58733</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>33049815.08001</v>
+        <v>33185547.0914</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>39659504.75430001</v>
+        <v>39735479.66751999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>41620714.26889999</v>
+        <v>44855423.49335999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>48593618.61305001</v>
+        <v>49323168.43626</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>64080396.09276</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>83230057.63338998</v>
+        <v>83314727.83363001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>90446207.89363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>90971696.08746</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>120707725.919</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>11232443.70625</v>
@@ -1346,37 +1302,42 @@
         <v>14584466.91306</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>20946410.64941</v>
+        <v>20946876.99943</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>23327656.90746</v>
+        <v>23341257.44989</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>26312596.89347</v>
+        <v>26438446.79725</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>31606522.33303</v>
+        <v>31672474.87428</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>33110233.64171</v>
+        <v>35882773.75280999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>38588793.43066</v>
+        <v>39246257.63788</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>50931158.55467999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>66327055.76507999</v>
+        <v>66358205.95663001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>73295644.07357001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>73695836.32034001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>95313475.848</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>2457352.30136</v>
@@ -1388,151 +1349,171 @@
         <v>4198724.74963</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>4489993.313349999</v>
+        <v>4490493.27001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>5260713.67293</v>
+        <v>5269433.0963</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>6413377.642890002</v>
+        <v>6422952.39307</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>6773111.50416</v>
+        <v>7186810.92074</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>8041233.959439998</v>
+        <v>8106917.176899999</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>10610806.9553</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>13384833.91383</v>
+        <v>13429044.90178</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>13980637.12185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14091035.87276</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>21632771.62</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>650636.5603900001</v>
+        <v>650636.56039</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>698098.2536000001</v>
+        <v>698098.2535999999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>801872.14982</v>
+        <v>802079.0326400001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>933214.1575100002</v>
+        <v>933214.1575099998</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1149912.13282</v>
+        <v>1151074.81706</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1410246.22022</v>
+        <v>1410691.86451</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1400115.29483</v>
+        <v>1448374.42749</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1574212.1721</v>
+        <v>1579023.586700001</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>2000706.73448</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2852548.469510001</v>
+        <v>2861654.9447</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2569860.799589999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2576760.52752</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2893850.226</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>152744.37208</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>253173.9533199999</v>
+        <v>253173.95332</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>317381.37419</v>
+        <v>317381.3741900001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>280596.7099200001</v>
+        <v>280596.7099199999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>326592.38079</v>
+        <v>326592.3807899999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>229358.55816</v>
+        <v>229360.53566</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>337253.8282</v>
+        <v>337464.39232</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>389379.0508499999</v>
+        <v>390970.03478</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>537723.8483000001</v>
+        <v>537723.8483</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>665619.48497</v>
+        <v>665822.03052</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>600065.8986199999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>608063.36684</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>867628.225</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>3673994.3368</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>4362714.79695</v>
+        <v>4362714.796949999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>6426577.78472</v>
+        <v>6427094.346159999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>6585403.88893</v>
+        <v>6588059.10182</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>8025526.731509999</v>
+        <v>8067015.399779999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>9316021.06711</v>
+        <v>9341077.283159999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>9943963.436449999</v>
+        <v>10812989.92048</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>12163368.74111</v>
+        <v>12272619.98902</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>15983552.28634</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>22047423.20699</v>
+        <v>22055658.40546</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>23387727.588</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>23510816.60051</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>31976140.477</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>2106333.51422</v>
@@ -1541,37 +1522,42 @@
         <v>2456692.25607</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>3154530.705630001</v>
+        <v>3154801.83764</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3688977.696160001</v>
+        <v>3690182.553420001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>4176484.098939999</v>
+        <v>4206544.83091</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>5007452.156839999</v>
+        <v>5017967.8714</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>5422282.892309999</v>
+        <v>5826076.03559</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>6713940.85259</v>
+        <v>6800000.1491</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>7958440.539079999</v>
+        <v>7958440.53908</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>10262802.12598</v>
+        <v>10286495.38158</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>11865914.99847</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>11943475.33405</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>13306417.654</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>62007.46462000001</v>
@@ -1580,76 +1566,86 @@
         <v>70339.97963</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>87723.84829000001</v>
+        <v>87723.84828999999</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>113784.6669</v>
+        <v>113866.83713</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>146781.22744</v>
+        <v>147766.27681</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>177370.83223</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>181779.77083</v>
+        <v>208473.22356</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>251726.10059</v>
+        <v>254038.44784</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>291957.3775500001</v>
+        <v>291957.37755</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>446091.5219100001</v>
+        <v>446532.5004899999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>550214.92957</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>553440.65516</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>654613.796</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>756695.69732</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>929222.7032799999</v>
+        <v>929222.70328</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>1233723.33689</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1420051.30871</v>
+        <v>1420294.52913</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1589940.27235</v>
+        <v>1608012.85045</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1977322.67627</v>
+        <v>1980864.51956</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2090673.20409</v>
+        <v>2300075.31698</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2654807.20418</v>
+        <v>2695068.40248</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>3246744.43972</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>4254935.395190001</v>
+        <v>4256902.01318</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>4766304.73668</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>4781804.679640001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>5132255.366</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1287630.35228</v>
@@ -1658,37 +1654,42 @@
         <v>1457129.57316</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1833083.52045</v>
+        <v>1833354.65246</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2155141.72055</v>
+        <v>2156021.18716</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2439762.59915</v>
+        <v>2450765.70365</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2852758.64834</v>
+        <v>2859732.519610001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>3149829.917390001</v>
+        <v>3317527.49505</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3807407.54782</v>
+        <v>3850893.298780001</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>4419738.72181</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>5561775.20888</v>
+        <v>5583060.86791</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>6549395.332220001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6608229.99925</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>7519548.492</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>1567660.82258</v>
@@ -1697,76 +1698,86 @@
         <v>1906022.54088</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>3272047.07909</v>
+        <v>3272292.508520001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2896426.19277</v>
+        <v>2897876.5484</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>3849042.63257</v>
+        <v>3860470.568870001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4308568.91027</v>
+        <v>4323109.411760001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>4521680.54414</v>
+        <v>4986913.884889999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>5449427.88852</v>
+        <v>5472619.839920001</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>8025111.747260001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>11784621.08101</v>
+        <v>11769163.02388</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>11521812.58953</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>11567341.26646</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>18669722.823</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>919469.4972100002</v>
+        <v>919469.4972100001</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>1050555.50134</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2231904.70876</v>
+        <v>2231904.97364</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1425153.87036</v>
+        <v>1425178.86243</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2488338.40797</v>
+        <v>2490302.39402</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2398837.01941</v>
+        <v>2393295.30339</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>3459084.34582</v>
+        <v>3964861.9469</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>3679493.96452</v>
+        <v>3722815.07547</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>5239018.66567</v>
+        <v>5239018.665670001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>12952981.55628</v>
+        <v>12966000.4188</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>9918393.147550002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>9946910.7775</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>19126827.12</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>16927.049</v>
@@ -1781,13 +1792,13 @@
         <v>71254.86215999999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>82541.46636000001</v>
+        <v>82541.46636000002</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>79988.05285000001</v>
+        <v>79988.05284999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>100028.59727</v>
+        <v>100262.01079</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>135733.16509</v>
@@ -1796,16 +1807,21 @@
         <v>177739.43304</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>350542.90262</v>
+        <v>350542.9026199999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>335258.61135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>335258.6113500001</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>383182.31</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>25669.30802</v>
@@ -1829,67 +1845,77 @@
         <v>134793.28976</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>145755.04905</v>
+        <v>145801.63419</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>55022.31516000001</v>
+        <v>55022.31516</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>71522.81358000002</v>
+        <v>71533.70545000001</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>117410.1703</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>211206.014</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>92067.28249999999</v>
+        <v>92067.2825</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>88410.92425999999</v>
+        <v>88410.92426</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>93435.88038</v>
+        <v>93435.88038000002</v>
       </c>
       <c r="F28" s="48" t="n">
         <v>123811.79865</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>115674.61993</v>
+        <v>115939.74403</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>147646.80089</v>
+        <v>147797.43812</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>155421.28889</v>
+        <v>171963.15357</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>185854.15899</v>
+        <v>189526.79734</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>314489.08997</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>528252.61787</v>
+        <v>528666.32577</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>625853.5941900001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>630714.2661000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>620476.2929999999</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>11263.02547</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>19524.98276000001</v>
+        <v>19524.98276</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>18868.94248</v>
@@ -1904,10 +1930,10 @@
         <v>7852.3319</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>13441.6216</v>
+        <v>13441.68308</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>7593.776389999999</v>
+        <v>8477.5957</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>17825.44616</v>
@@ -1916,13 +1942,18 @@
         <v>23388.04947</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>14215.79116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>10950.52699</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>34039.517</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>13546.19004</v>
@@ -1937,31 +1968,36 @@
         <v>18188.36416</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>27583.35411</v>
+        <v>28145.36645</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>27595.64997</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>32416.99536</v>
+        <v>32817.83831</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>33954.33967</v>
+        <v>34325.63678</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>33405.45403</v>
+        <v>33405.45403000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>61298.76488999999</v>
+        <v>62390.95508</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>167482.74255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>168563.13385</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>155212.788</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>4958.47439</v>
@@ -1973,73 +2009,83 @@
         <v>6519.25367</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2603.30634</v>
+        <v>2603.69956</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>6493.13564</v>
+        <v>6493.19447</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>5410.502030000001</v>
+        <v>5441.842699999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>7798.84919</v>
+        <v>8167.45567</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>21031.7411</v>
+        <v>21073.20658</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>20589.43693</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>54697.05393000001</v>
+        <v>54703.06461000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>68238.75721999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>68847.40233</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>178500.383</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>603619.85173</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>747690.46851</v>
+        <v>747690.4685099999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1852888.45403</v>
+        <v>1852888.71891</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>968307.7863900001</v>
+        <v>968332.3852399999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2004388.71333</v>
+        <v>2005275.64918</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1806685.05414</v>
+        <v>1808335.51795</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2672917.046459999</v>
+        <v>3147702.05994</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2664491.92294</v>
+        <v>2700876.37109</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>3934929.63608</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>10984948.2991</v>
+        <v>10993388.25975</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>7684517.82733</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>7706770.76146</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>16062161.636</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>25954.92477</v>
@@ -2060,7 +2106,7 @@
         <v>24079.88582</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>28991.01977</v>
+        <v>29042.70291</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>33208.50863</v>
@@ -2074,14 +2120,19 @@
       <c r="M33" s="48" t="n">
         <v>58455.29904</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>58049.58</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>422.63554</v>
+        <v>422.6355400000001</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>97.94711</v>
@@ -2102,7 +2153,7 @@
         <v>448.01284</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>506.40609</v>
+        <v>506.4060899999999</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>634.1920200000001</v>
@@ -2111,13 +2162,18 @@
         <v>1391.05501</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>516.60716</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>516.6071599999999</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>224.067</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>125040.75575</v>
@@ -2132,70 +2188,80 @@
         <v>162576.15955</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>197624.46282</v>
+        <v>197874.31775</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>265582.83848</v>
+        <v>258208.68075</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>312827.6246800001</v>
+        <v>326223.74003</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>451364.89657</v>
+        <v>453285.75398</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>657332.7013499999</v>
+        <v>657332.70135</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>838135.9193899999</v>
+        <v>841192.02062</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>846443.7472499999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>849423.9989199998</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1423774.532</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>736775.5933400001</v>
+        <v>736775.59334</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>781443.4873100001</v>
+        <v>781443.4873100002</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2142248.01464</v>
+        <v>2142248.67639</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1014605.43208</v>
+        <v>1014664.30144</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2074026.25763</v>
+        <v>2102729.88725</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1950476.70554</v>
+        <v>1951892.66042</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2712489.51323</v>
+        <v>3164681.05223</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2763460.36717</v>
+        <v>2806700.48722</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4094842.27252</v>
+        <v>4094842.272520001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>11284899.53259</v>
+        <v>11294598.32308</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>8014707.65996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>8040336.267290001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>14685416.91</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>20983.37571</v>
@@ -2207,73 +2273,83 @@
         <v>23952.35557</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>27185.28941</v>
+        <v>27186.68954999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>32005.02849</v>
+        <v>32123.75654</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>32260.9221</v>
+        <v>32261.87001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>32272.50899</v>
+        <v>37665.26663</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>42557.3545</v>
+        <v>42574.36186</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>64734.79702000001</v>
+        <v>64734.79702</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>87778.42941999999</v>
+        <v>87778.42941999997</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>79025.97964000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>79117.68896999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>132938.645</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>79367.59355999999</v>
+        <v>79367.59356000001</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>69658.15616</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>76113.30283000002</v>
+        <v>76113.30283</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>100472.03533</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>138285.71897</v>
+        <v>140575.81092</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>130261.62718</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>197465.2193</v>
+        <v>204926.32175</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>219922.06136</v>
+        <v>220357.19711</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>248069.96147</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>398323.9369500001</v>
+        <v>398389.8549499999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>495231.5552</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>498894.4700500001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>440948.108</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1620.48913</v>
@@ -2282,79 +2358,89 @@
         <v>991.97711</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>5933.123880000001</v>
+        <v>5933.12388</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>4676.084749999999</v>
+        <v>4676.08475</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>1917.96454</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>8794.653319999999</v>
+        <v>8821.396939999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>14152.84483</v>
+        <v>14225.3079</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>5579.64421</v>
+        <v>5579.644209999999</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>42076.76198999999</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>13445.53724</v>
+        <v>13445.57868</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>13307.16926</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>13338.98264</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>17503.238</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>578222.90553</v>
+        <v>578222.9055299999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>645839.2683499999</v>
+        <v>645839.26835</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1958766.46421</v>
+        <v>1958767.12596</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>800322.9750099999</v>
+        <v>800380.44423</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1752014.66315</v>
+        <v>1776274.53125</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1614867.56381</v>
+        <v>1615936.18531</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2282936.98283</v>
+        <v>2719796.568389999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2297553.20615</v>
+        <v>2339486.47466</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>3446572.63831</v>
+        <v>3446572.638309999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>10491620.23773</v>
+        <v>10501099.77627</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>7075574.581799999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>7096351.388310001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>13722196.48</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>9631.168840000002</v>
+        <v>9631.168839999998</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>8748.232540000001</v>
@@ -2372,13 +2458,13 @@
         <v>25017.97491</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>33063.67129999999</v>
+        <v>33200.39055</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>32111.54081</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>30080.29946000001</v>
+        <v>30080.29946</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>55192.60395</v>
@@ -2386,14 +2472,19 @@
       <c r="M41" s="48" t="n">
         <v>43541.39103</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>77218.762</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>864.9600799999998</v>
+        <v>864.9600800000001</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>241.5569</v>
@@ -2411,7 +2502,7 @@
         <v>265.60093</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>110.78528</v>
+        <v>127.41428</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>32.14919</v>
@@ -2423,91 +2514,106 @@
         <v>27.16563</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>755.5399199999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>80.19407000000001</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>342.878</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>46085.10048999999</v>
+        <v>46085.10049</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>37176.52566000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>69009.82823999999</v>
+        <v>69009.82824</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>75380.40109999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>131543.0598</v>
+        <v>133578.00132</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>139008.36329</v>
+        <v>139328.00514</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>152487.5007</v>
+        <v>154739.78273</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>165704.41095</v>
+        <v>166559.11938</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>262410.02954</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>238511.62167</v>
+        <v>238664.91418</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>307271.44311</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>309012.15222</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>294268.799</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>516708.35949</v>
+        <v>516708.3594899999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>458365.5749700001</v>
+        <v>458365.57497</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>972445.2187399998</v>
+        <v>972451.7464900002</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>764295.50476</v>
+        <v>764436.1389500001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1223867.89317</v>
+        <v>1232518.2104</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1086642.94201</v>
+        <v>1088876.4208</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1616699.20109</v>
+        <v>1791044.91938</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2009674.85428</v>
+        <v>2015294.60971</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>2739304.30781</v>
+        <v>2739304.307810001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>4335561.648839999</v>
+        <v>4340090.46617</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3651228.775889999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3667756.1494</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>5068266.3</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>453155.58675</v>
@@ -2516,40 +2622,45 @@
         <v>404905.0373499999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>830330.1801499999</v>
+        <v>830336.7078999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>674757.7270799999</v>
+        <v>674896.0857899999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1085843.33507</v>
+        <v>1088506.44</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>949014.77582</v>
+        <v>951248.2546100001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1463425.28735</v>
+        <v>1504066.05079</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1641449.89979</v>
+        <v>1646970.02497</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>2324434.14598</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>3774724.26075</v>
+        <v>3779243.5341</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>3175819.45118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>3192094.3998</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>4542043.83</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>63552.77274</v>
+        <v>63552.77273999999</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>53460.53762</v>
@@ -2558,34 +2669,39 @@
         <v>142115.03859</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>89537.77768</v>
+        <v>89540.05316</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>138024.5581</v>
+        <v>144011.7704</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>137628.16619</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>153273.91374</v>
+        <v>286978.86859</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>368224.95449</v>
+        <v>368324.58474</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>414870.16183</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>560837.38809</v>
+        <v>560846.93207</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>475409.32471</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>475661.7496</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>526222.47</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>1233646.36696</v>
@@ -2594,37 +2710,42 @@
         <v>1716768.97994</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>2389258.55447</v>
+        <v>2389497.05928</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>2542679.12629</v>
+        <v>2543954.97044</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>3039486.88974</v>
+        <v>3015524.86524</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>3670286.282130001</v>
+        <v>3675635.63393</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>3651576.17564</v>
+        <v>3996049.86018</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>4355786.63159</v>
+        <v>4373439.818460001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>6429983.8326</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>9117141.45586</v>
+        <v>9100474.653429998</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>9774269.301230002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>9806159.62727</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>18042866.733</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>146483.90884</v>
@@ -2636,40 +2757,45 @@
         <v>204546.23581</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>223430.2614</v>
+        <v>223653.49236</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>286350.69344</v>
+        <v>289218.6720899999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>421099.9061</v>
+        <v>421350.5957599999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>434013.68434</v>
+        <v>442320.4863099999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>676636.3776100001</v>
+        <v>777590.5143299999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>687904.6123500001</v>
+        <v>687904.61235</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>771406.81047</v>
+        <v>772377.45478</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>835701.52894</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>845864.4635599999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1074512.908</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>6021.741609999999</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>6016.062159999999</v>
+        <v>6016.06216</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>9129.489680000001</v>
@@ -2678,31 +2804,36 @@
         <v>5985.965520000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>9216.625340000002</v>
+        <v>9243.27534</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>10002.95224</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>17084.99104</v>
+        <v>17231.65191</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>17072.06161</v>
+        <v>17089.45805</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>23537.40569000001</v>
+        <v>23537.40568999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>14940.21848</v>
+        <v>14940.91387</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>20956.33909</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>23515.99866</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>29521.865</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>140462.16723</v>
@@ -2714,34 +2845,39 @@
         <v>195416.74613</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>217444.29588</v>
+        <v>217667.52684</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>277134.0681</v>
+        <v>279975.39675</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>411096.95386</v>
+        <v>411347.64352</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>416928.6933</v>
+        <v>425088.8344000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>659564.316</v>
+        <v>760501.05628</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>664367.2066600001</v>
+        <v>664367.2066599999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>756466.5919899999</v>
+        <v>757436.5409099999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>814745.18985</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>822348.4649</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1044991.043</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>377176.31444</v>
@@ -2750,37 +2886,42 @@
         <v>206294.53309</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>903870.29998</v>
+        <v>903872.04204</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>212306.43122</v>
+        <v>212388.42714</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>240467.93185</v>
+        <v>240996.28133</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>749681.67235</v>
+        <v>750333.3467999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>309966.71576</v>
+        <v>330219.04148</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1157575.20151</v>
+        <v>1167737.43166</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>458656.75309</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1208577.81824</v>
+        <v>1213572.9223</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>701674.5377599999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>706667.82533</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>926705.7929999999</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>110772.21643</v>
@@ -2789,7 +2930,7 @@
         <v>33163.45757</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>29989.99903000001</v>
+        <v>29989.99903</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>29389.65639</v>
@@ -2798,28 +2939,33 @@
         <v>31366.09877</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>39820.94689000001</v>
+        <v>39827.61212999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>58169.80344</v>
+        <v>64469.72079000001</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>50222.81285999999</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>78594.11744999999</v>
+        <v>78594.11745000002</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>144044.59243</v>
+        <v>144221.95548</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>97439.41137</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>97739.71212000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>175387.878</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>17165.93449</v>
@@ -2834,31 +2980,36 @@
         <v>37165.93094000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>32538.32565</v>
+        <v>32663.54645999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>37121.1425</v>
+        <v>37133.43140000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>43925.08067</v>
+        <v>44495.83289</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>221945.49152</v>
+        <v>230405.46091</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>45894.77631000001</v>
+        <v>45894.77631</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>48355.02808999999</v>
+        <v>48358.03464</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>83237.70688</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>83361.57484000002</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>43294.99</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>249238.16352</v>
@@ -2867,37 +3018,42 @@
         <v>158052.52648</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>849410.68076</v>
+        <v>849412.4228200001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>145750.84389</v>
+        <v>145832.83981</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>176563.50743</v>
+        <v>176966.6361</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>672739.58296</v>
+        <v>673372.30327</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>207871.83165</v>
+        <v>221253.4878</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>885406.8971300002</v>
+        <v>887109.15789</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>334167.85933</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1016178.19772</v>
+        <v>1020992.93218</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>520997.41951</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>525566.53837</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>708022.925</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>1002953.96136</v>
@@ -2906,37 +3062,42 @@
         <v>1647670.32213</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1689934.4903</v>
+        <v>1690171.25305</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>2553802.95647</v>
+        <v>2555220.03566</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>3085369.65133</v>
+        <v>3063747.256000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>3341704.51588</v>
+        <v>3346652.88289</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>3775623.14422</v>
+        <v>4108151.30501</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>3874847.807689999</v>
+        <v>3983292.901129999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>6659231.691860001</v>
+        <v>6659231.69186</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>8679970.44809</v>
+        <v>8659279.18591</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>9908296.292410001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>9945356.265500002</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>18190673.848</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>231701.31607</v>
@@ -2945,37 +3106,42 @@
         <v>325826.84806</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>416738.6649</v>
+        <v>416786.8723</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>410079.75615</v>
+        <v>410401.54351</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>500919.79078</v>
+        <v>501537.76904</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>624773.782</v>
+        <v>625962.69867</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>643411.5522900001</v>
+        <v>687633.49619</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>689612.95852</v>
+        <v>699127.8627999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>885711.7840400001</v>
+        <v>885711.7840399999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1433801.13279</v>
+        <v>1434516.40681</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1411894.55224</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1388186.88123</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2419361.154</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>771252.6452900001</v>
@@ -2984,34 +3150,37 @@
         <v>1321843.47407</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>1273195.8254</v>
+        <v>1273384.38075</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2143723.20032</v>
+        <v>2144818.49215</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2584449.86055</v>
+        <v>2562209.486959999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>2716930.73388</v>
+        <v>2720690.18422</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>3132211.59193</v>
+        <v>3420517.808820001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>3185234.84917</v>
+        <v>3284165.03833</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>5773519.907819998</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>7246169.315300001</v>
+        <v>7224762.7791</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>8496401.74017</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>8557169.384270001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>15771312.694</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>8124</v>
@@ -3038,34 +3210,37 @@
         <v>8343</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>8619</v>
+        <v>8621</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>8690</v>
+        <v>8697</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>8708</v>
+        <v>8720</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>9001</v>
+        <v>9031</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>9282</v>
+        <v>9366</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>9783</v>
+        <v>9839</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>10399</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>10147</v>
+        <v>10980</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>10415</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>11595</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>12615</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>